--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,27 +511,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Islem</t>
+          <t>Sihem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rekik</t>
+          <t>Dabbou</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Imperial College London</t>
+          <t>Università degli Studi di Trento</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Royaume-Uni</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>tb6CVoAAAAAJ</t>
+          <t>tlJf9NIAAAAJ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -540,30 +540,30 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N2" t="n">
-        <v>2498</v>
+        <v>3890</v>
       </c>
       <c r="O2" t="n">
-        <v>2351</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="3">
@@ -572,27 +572,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Islem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ben Abacha</t>
+          <t>Rekik</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Imperial College London</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Royaume-Uni</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KO6_r0cAAAAJ</t>
+          <t>tb6CVoAAAAAJ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -612,19 +612,19 @@
         <v>28</v>
       </c>
       <c r="K3" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N3" t="n">
-        <v>2532</v>
+        <v>2498</v>
       </c>
       <c r="O3" t="n">
-        <v>2028</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="4">
@@ -633,17 +633,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Necib</t>
+          <t>Ben Abacha</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sCd6x4MAAAAJ</t>
+          <t>KO6_r0cAAAAJ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -662,30 +662,30 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Physique et Astronomie</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>2180</v>
+        <v>2532</v>
       </c>
       <c r="O4" t="n">
-        <v>2088</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="5">
@@ -694,59 +694,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Lina</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Othman</t>
+          <t>Necib</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-bApadEAAAAJ</t>
+          <t>sCd6x4MAAAAJ</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Physique et Astronomie</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N5" t="n">
-        <v>829</v>
+        <v>2180</v>
       </c>
       <c r="O5" t="n">
-        <v>770</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="6">
@@ -755,17 +755,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oussama</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ben Khiroun</t>
+          <t>Othman</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3aS4BBIAAAAJ</t>
+          <t>-bApadEAAAAJ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -788,26 +788,26 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>199</v>
+        <v>829</v>
       </c>
       <c r="O6" t="n">
-        <v>160</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7">
@@ -816,59 +816,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Alif</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rabti</t>
+          <t>Chebbi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Università degli Studi Roma Tre</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>tOl1jBoAAAAJ</t>
+          <t>NOui2AMAAAAJ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>344</v>
+        <v>909</v>
       </c>
       <c r="O7" t="n">
-        <v>299</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8">
@@ -877,17 +877,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Oussama</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Ben Khiroun</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>3aS4BBIAAAAJ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -906,30 +906,30 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
       <c r="N8" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O8" t="n">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -938,17 +938,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Rabti</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -958,39 +958,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>tOl1jBoAAAAJ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="O9" t="n">
-        <v>219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1019,39 +1019,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
         <v>7</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
       <c r="N10" t="n">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="O10" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
@@ -1060,27 +1060,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="O11" t="n">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1150,30 +1150,30 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="O12" t="n">
-        <v>438</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
@@ -1182,36 +1182,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
         <v>6</v>
       </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
       <c r="L13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
       <c r="N13" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O13" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1280,22 +1280,22 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>199</v>
+        <v>450</v>
       </c>
       <c r="O14" t="n">
-        <v>184</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1344,19 +1344,19 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
       <c r="N15" t="n">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="O15" t="n">
-        <v>103</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1408,16 +1408,16 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="O16" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -1426,44 +1426,44 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -1472,13 +1472,13 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>365</v>
+        <v>157</v>
       </c>
       <c r="O17" t="n">
-        <v>355</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1507,16 +1507,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1533,13 +1533,13 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="O18" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -1548,40 +1548,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1591,16 +1591,16 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
         <v>4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
       <c r="N19" t="n">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="O19" t="n">
-        <v>41</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1629,16 +1629,16 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1649,19 +1649,19 @@
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="O20" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1670,17 +1670,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1710,19 +1710,19 @@
         <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O21" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1751,39 +1751,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="O22" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1821,30 +1821,30 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="O23" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1873,16 +1873,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1893,19 +1893,19 @@
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="O24" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -1914,17 +1914,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1943,11 +1943,11 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1957,16 +1957,16 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O25" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1995,20 +1995,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2018,16 +2018,16 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2056,20 +2056,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -2079,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="O27" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2140,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O28" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2178,39 +2178,39 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="O29" t="n">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,16 +2239,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2256,22 +2256,22 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O30" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2280,36 +2280,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="O31" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32">
@@ -2341,27 +2341,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2370,30 +2370,30 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O32" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2402,36 +2402,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O33" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -2463,59 +2463,59 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O34" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2544,39 +2544,39 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="O35" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -2585,58 +2585,180 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Houssem Eddine</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Chachia</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Université de Tunis</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>cbh0RuIAAAAJ</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Arts, Humanités et Sciences Sociales</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>27</v>
+      </c>
+      <c r="O36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>99</v>
+      </c>
+      <c r="O37" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Mohamed Aymen</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Ben Abdessalem</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Université de Sousse</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>1986</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N38" t="n">
         <v>30</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O38" t="n">
         <v>29</v>
       </c>
     </row>

--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,27 +877,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oussama</t>
+          <t>Skander</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ben Khiroun</t>
+          <t>Hathroubi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Strasbourg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3aS4BBIAAAAJ</t>
+          <t>hMHGOioAAAAJ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -910,26 +910,26 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>11</v>
       </c>
       <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
         <v>11</v>
       </c>
-      <c r="L8" t="n">
-        <v>9</v>
-      </c>
       <c r="M8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>199</v>
+        <v>583</v>
       </c>
       <c r="O8" t="n">
-        <v>160</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
@@ -938,17 +938,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Oussama</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rabti</t>
+          <t>Ben Khiroun</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -958,39 +958,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>tOl1jBoAAAAJ</t>
+          <t>3aS4BBIAAAAJ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>9</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>344</v>
+        <v>199</v>
       </c>
       <c r="O9" t="n">
-        <v>299</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -999,36 +999,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Omayma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Missawi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Namur</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Belgique</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>qMrkBQsAAAAJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>204</v>
+        <v>429</v>
       </c>
       <c r="O10" t="n">
-        <v>201</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Rabti</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1080,39 +1080,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>tOl1jBoAAAAJ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="O11" t="n">
-        <v>219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1141,39 +1141,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" t="n">
         <v>7</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
       <c r="N12" t="n">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="O12" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -1182,27 +1182,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
         <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="O13" t="n">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1272,30 +1272,30 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="O14" t="n">
-        <v>438</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -1304,36 +1304,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1341,22 +1341,22 @@
         </is>
       </c>
       <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
       <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
       <c r="N15" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O15" t="n">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>199</v>
+        <v>450</v>
       </c>
       <c r="O16" t="n">
-        <v>184</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17">
@@ -1426,17 +1426,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
       <c r="N17" t="n">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="O17" t="n">
-        <v>103</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1530,16 +1530,16 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="O18" t="n">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -1548,44 +1548,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1594,13 +1594,13 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>365</v>
+        <v>157</v>
       </c>
       <c r="O19" t="n">
-        <v>355</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1629,16 +1629,16 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1655,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="O20" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -1670,40 +1670,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1713,16 +1713,16 @@
         <v>4</v>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" t="n">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="O21" t="n">
-        <v>41</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1751,16 +1751,16 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1771,19 +1771,19 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="O22" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O23" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1873,39 +1873,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="O24" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1914,17 +1914,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1943,30 +1943,30 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="O25" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1995,16 +1995,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="O26" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2065,11 +2065,11 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -2079,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O27" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2117,20 +2117,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2140,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O28" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2178,20 +2178,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2201,16 +2201,16 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2262,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O30" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2300,39 +2300,39 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="O31" t="n">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -2341,17 +2341,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2361,16 +2361,16 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2378,22 +2378,22 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O32" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -2402,36 +2402,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2439,22 +2439,22 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="O33" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -2463,27 +2463,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2492,30 +2492,30 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O34" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -2524,36 +2524,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2573,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O35" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -2585,59 +2585,59 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O36" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2666,39 +2666,39 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="O37" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -2707,58 +2707,180 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Houssem Eddine</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chachia</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Université de Tunis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>cbh0RuIAAAAJ</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1984</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Arts, Humanités et Sciences Sociales</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>99</v>
+      </c>
+      <c r="O39" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Mohamed Aymen</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Ben Abdessalem</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Université de Sousse</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>1986</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K40" t="n">
         <v>1</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>30</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O40" t="n">
         <v>29</v>
       </c>
     </row>

--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>63</v>
       </c>
       <c r="N3" t="n">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="O3" t="n">
-        <v>2351</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="O4" t="n">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="5">
@@ -731,22 +731,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
-        <v>2180</v>
+        <v>1451</v>
       </c>
       <c r="O5" t="n">
-        <v>2088</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="6">
@@ -804,10 +804,10 @@
         <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O6" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O7" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="O8" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9">
@@ -938,17 +938,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oussama</t>
+          <t>Hanen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ben Khiroun</t>
+          <t>Boukedi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -958,39 +958,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3aS4BBIAAAAJ</t>
+          <t>8xS0mh8AAAAJ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>11</v>
       </c>
       <c r="K9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
         <v>11</v>
       </c>
-      <c r="L9" t="n">
-        <v>9</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
       <c r="N9" t="n">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="O9" t="n">
-        <v>160</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
@@ -999,59 +999,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Omayma</t>
+          <t>Oussama</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Missawi</t>
+          <t>Ben Khiroun</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Université de Namur</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Belgique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>qMrkBQsAAAAJ</t>
+          <t>3aS4BBIAAAAJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>429</v>
+        <v>199</v>
       </c>
       <c r="O10" t="n">
-        <v>429</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -1060,27 +1060,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Omayma</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rabti</t>
+          <t>Missawi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Namur</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Belgique</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>tOl1jBoAAAAJ</t>
+          <t>qMrkBQsAAAAJ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1089,30 +1089,30 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="O11" t="n">
-        <v>299</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12">
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Rabti</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1141,39 +1141,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>tOl1jBoAAAAJ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="O12" t="n">
-        <v>201</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1215,26 +1215,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="O13" t="n">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1263,16 +1263,16 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1286,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O14" t="n">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -1304,36 +1304,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1350,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="O15" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
@@ -1365,59 +1365,59 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>450</v>
+        <v>189</v>
       </c>
       <c r="O16" t="n">
-        <v>438</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -1426,17 +1426,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1455,30 +1455,30 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>209</v>
+        <v>451</v>
       </c>
       <c r="O17" t="n">
-        <v>208</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1520,26 +1520,26 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="O18" t="n">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
@@ -1548,17 +1548,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1591,16 +1591,16 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="O19" t="n">
-        <v>103</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="O20" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1670,59 +1670,59 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>365</v>
+        <v>114</v>
       </c>
       <c r="O21" t="n">
-        <v>355</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1731,27 +1731,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1760,11 +1760,11 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1774,16 +1774,16 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
       <c r="N22" t="n">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="O22" t="n">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1812,16 +1812,16 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1838,13 +1838,13 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="O23" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1893,19 +1893,19 @@
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O24" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -1914,17 +1914,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1957,16 +1957,16 @@
         <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O25" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1995,39 +1995,39 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O26" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2056,16 +2056,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2076,19 +2076,19 @@
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="O27" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2146,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O28" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2201,16 +2201,16 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,16 +2239,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2265,13 +2265,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O30" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2309,11 +2309,11 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2323,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O31" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -2341,17 +2341,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2390,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="O32" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -2402,17 +2402,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2422,16 +2422,16 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2439,22 +2439,22 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O33" t="n">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2503,19 +2503,19 @@
         <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="O34" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35">
@@ -2524,36 +2524,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2561,19 +2561,19 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O35" t="n">
         <v>31</v>
@@ -2585,40 +2585,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2634,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O36" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -2646,27 +2646,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2675,11 +2675,11 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O37" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2727,36 +2727,36 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O38" t="n">
         <v>22</v>
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2797,30 +2797,30 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="O39" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -2829,58 +2829,119 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>99</v>
+      </c>
+      <c r="O40" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Mohamed Aymen</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Ben Abdessalem</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Université de Sousse</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>1986</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K41" t="n">
         <v>1</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N41" t="n">
         <v>30</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O41" t="n">
         <v>29</v>
       </c>
     </row>

--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,27 +755,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Jawhar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Othman</t>
+          <t>Hafsa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Mohammed VI Polytechnic University</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-bApadEAAAAJ</t>
+          <t>ww5A_WMAAAAJ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="n">
         <v>21</v>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="n">
         <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>830</v>
+        <v>1159</v>
       </c>
       <c r="O6" t="n">
-        <v>771</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7">
@@ -816,27 +816,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alif</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chebbi</t>
+          <t>Othman</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Università degli Studi Roma Tre</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Italie</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NOui2AMAAAAJ</t>
+          <t>-bApadEAAAAJ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
@@ -862,13 +862,13 @@
         <v>15</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="O7" t="n">
-        <v>863</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8">
@@ -877,27 +877,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Skander</t>
+          <t>Alif</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hathroubi</t>
+          <t>Chebbi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Université de Strasbourg</t>
+          <t>Università degli Studi Roma Tre</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>hMHGOioAAAAJ</t>
+          <t>NOui2AMAAAAJ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -914,22 +914,22 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>585</v>
+        <v>910</v>
       </c>
       <c r="O8" t="n">
-        <v>536</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9">
@@ -938,36 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hanen</t>
+          <t>Skander</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Boukedi</t>
+          <t>Hathroubi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Strasbourg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8xS0mh8AAAAJ</t>
+          <t>hMHGOioAAAAJ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -981,16 +981,16 @@
         <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="O9" t="n">
-        <v>331</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
@@ -999,17 +999,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oussama</t>
+          <t>Hanen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ben Khiroun</t>
+          <t>Boukedi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1019,39 +1019,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3aS4BBIAAAAJ</t>
+          <t>8xS0mh8AAAAJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>11</v>
       </c>
       <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
         <v>11</v>
       </c>
-      <c r="L10" t="n">
-        <v>9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8</v>
-      </c>
       <c r="N10" t="n">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="O10" t="n">
-        <v>160</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
@@ -1060,59 +1060,59 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Omayma</t>
+          <t>Oussama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Missawi</t>
+          <t>Ben Khiroun</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Université de Namur</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Belgique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>qMrkBQsAAAAJ</t>
+          <t>3aS4BBIAAAAJ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>431</v>
+        <v>199</v>
       </c>
       <c r="O11" t="n">
-        <v>431</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -1121,27 +1121,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Omayma</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rabti</t>
+          <t>Missawi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Namur</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Belgique</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>tOl1jBoAAAAJ</t>
+          <t>qMrkBQsAAAAJ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1150,30 +1150,30 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="O12" t="n">
-        <v>299</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Rabti</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1202,39 +1202,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>tOl1jBoAAAAJ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="O13" t="n">
-        <v>202</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14" t="n">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="O14" t="n">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1324,16 +1324,16 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1347,16 +1347,16 @@
         <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O15" t="n">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
@@ -1365,36 +1365,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1411,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="O16" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -1426,59 +1426,59 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="O17" t="n">
-        <v>439</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1516,30 +1516,30 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>210</v>
+        <v>451</v>
       </c>
       <c r="O18" t="n">
-        <v>209</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19">
@@ -1548,17 +1548,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1581,26 +1581,26 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="O19" t="n">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1652,16 +1652,16 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="O20" t="n">
-        <v>103</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -1670,17 +1670,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1713,16 +1713,16 @@
         <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="O21" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -1731,59 +1731,59 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="O22" t="n">
-        <v>357</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -1792,27 +1792,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1821,11 +1821,11 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1835,16 +1835,16 @@
         <v>4</v>
       </c>
       <c r="L23" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
       <c r="N23" t="n">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="O23" t="n">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1873,16 +1873,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1899,13 +1899,13 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="O24" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1954,19 +1954,19 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O25" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2018,16 +2018,16 @@
         <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O26" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2056,39 +2056,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O27" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2117,16 +2117,16 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
         <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
         <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="O28" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2207,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O29" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2262,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2300,16 +2300,16 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2326,13 +2326,13 @@
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O31" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -2341,17 +2341,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2370,11 +2370,11 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2384,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O32" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -2402,17 +2402,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="O33" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2500,22 +2500,22 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O34" t="n">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2564,19 +2564,19 @@
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="O35" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
@@ -2585,36 +2585,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2622,19 +2622,19 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O36" t="n">
         <v>31</v>
@@ -2646,40 +2646,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O37" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -2707,27 +2707,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2736,11 +2736,11 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2756,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O38" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,36 +2788,36 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O39" t="n">
         <v>22</v>
@@ -2829,17 +2829,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2858,30 +2858,30 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="O40" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -2890,58 +2890,119 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>99</v>
+      </c>
+      <c r="O41" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Mohamed Aymen</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Ben Abdessalem</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Université de Sousse</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>1986</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="J42" t="n">
         <v>1</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K42" t="n">
         <v>1</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N42" t="n">
         <v>30</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O42" t="n">
         <v>29</v>
       </c>
     </row>

--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,36 +755,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jawhar</t>
+          <t>Sondes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hafsa</t>
+          <t>Mechri</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mohammed VI Polytechnic University</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ww5A_WMAAAAJ</t>
+          <t>RN8eVNQAAAAJ</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N6" t="n">
-        <v>1159</v>
+        <v>897</v>
       </c>
       <c r="O6" t="n">
-        <v>1069</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7">
@@ -816,27 +816,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Jawhar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Othman</t>
+          <t>Hafsa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Mohammed VI Polytechnic University</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Maroc</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-bApadEAAAAJ</t>
+          <t>ww5A_WMAAAAJ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -853,22 +853,22 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="n">
         <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>830</v>
+        <v>1159</v>
       </c>
       <c r="O7" t="n">
-        <v>771</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="8">
@@ -877,27 +877,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alif</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chebbi</t>
+          <t>Othman</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Università degli Studi Roma Tre</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Italie</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOui2AMAAAAJ</t>
+          <t>-bApadEAAAAJ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
         <v>21</v>
@@ -923,13 +923,13 @@
         <v>15</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="O8" t="n">
-        <v>863</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9">
@@ -938,27 +938,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Skander</t>
+          <t>Alif</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hathroubi</t>
+          <t>Chebbi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Université de Strasbourg</t>
+          <t>Università degli Studi Roma Tre</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>hMHGOioAAAAJ</t>
+          <t>NOui2AMAAAAJ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>585</v>
+        <v>910</v>
       </c>
       <c r="O9" t="n">
-        <v>536</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10">
@@ -999,17 +999,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hanen</t>
+          <t>Akram</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Boukedi</t>
+          <t>Zribi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1019,39 +1019,39 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8xS0mh8AAAAJ</t>
+          <t>FAZ-BeAAAAAJ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>563</v>
+        <v>823</v>
       </c>
       <c r="O10" t="n">
-        <v>331</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11">
@@ -1060,27 +1060,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oussama</t>
+          <t>Skander</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ben Khiroun</t>
+          <t>Hathroubi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Strasbourg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3aS4BBIAAAAJ</t>
+          <t>hMHGOioAAAAJ</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1093,26 +1093,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>11</v>
       </c>
       <c r="K11" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" t="n">
         <v>11</v>
       </c>
-      <c r="L11" t="n">
-        <v>9</v>
-      </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
-        <v>199</v>
+        <v>585</v>
       </c>
       <c r="O11" t="n">
-        <v>160</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
@@ -1121,27 +1121,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Omayma</t>
+          <t>Hanen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Missawi</t>
+          <t>Boukedi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Université de Namur</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Belgique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>qMrkBQsAAAAJ</t>
+          <t>8xS0mh8AAAAJ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1158,22 +1158,22 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>431</v>
+        <v>563</v>
       </c>
       <c r="O12" t="n">
-        <v>431</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Oussama</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rabti</t>
+          <t>Ben Khiroun</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1202,39 +1202,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>tOl1jBoAAAAJ</t>
+          <t>3aS4BBIAAAAJ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
         <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>344</v>
+        <v>199</v>
       </c>
       <c r="O13" t="n">
-        <v>299</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -1243,36 +1243,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Omayma</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Missawi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Namur</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Belgique</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>qMrkBQsAAAAJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1280,22 +1280,22 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="O14" t="n">
-        <v>202</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Rabti</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1324,39 +1324,39 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>tOl1jBoAAAAJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="O15" t="n">
-        <v>218</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1385,39 +1385,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
         <v>7</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
       <c r="N16" t="n">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="O16" t="n">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
         <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="O17" t="n">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1516,30 +1516,30 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>451</v>
+        <v>222</v>
       </c>
       <c r="O18" t="n">
-        <v>439</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -1548,36 +1548,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
         <v>6</v>
       </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
       <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
         <v>6</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
       <c r="N19" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="O19" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1646,22 +1646,22 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>199</v>
+        <v>451</v>
       </c>
       <c r="O20" t="n">
-        <v>184</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21">
@@ -1670,17 +1670,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1710,19 +1710,19 @@
         <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
       <c r="N21" t="n">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="O21" t="n">
-        <v>103</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1760,11 +1760,11 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1774,16 +1774,16 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="O22" t="n">
-        <v>77</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -1792,44 +1792,44 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -1838,13 +1838,13 @@
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="O23" t="n">
-        <v>357</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1873,16 +1873,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1899,13 +1899,13 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="O24" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1914,40 +1914,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1957,16 +1957,16 @@
         <v>4</v>
       </c>
       <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
         <v>4</v>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
       <c r="N25" t="n">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="O25" t="n">
-        <v>41</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1995,16 +1995,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="O26" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2076,19 +2076,19 @@
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2117,39 +2117,39 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="O28" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2187,30 +2187,30 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="O29" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,16 +2239,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2259,19 +2259,19 @@
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="O30" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2309,11 +2309,11 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2323,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O31" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -2341,27 +2341,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Kamel</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Mhalhel</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Università degli studi di Messina</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>R35oeVAAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2370,11 +2370,11 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2384,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O32" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -2402,17 +2402,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2422,20 +2422,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2445,16 +2445,16 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="O33" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2506,16 +2506,16 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O34" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2544,16 +2544,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2561,22 +2561,22 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="O35" t="n">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36">
@@ -2585,17 +2585,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2605,39 +2605,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="O36" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -2646,27 +2646,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O37" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -2707,27 +2707,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2736,30 +2736,30 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="O38" t="n">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O39" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -2829,27 +2829,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2858,30 +2858,30 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O40" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -2890,36 +2890,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2927,22 +2927,22 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="O41" t="n">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mohamed Aymen</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ben Abdessalem</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2971,38 +2971,221 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-k3TRw8AAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
+        <v>22</v>
+      </c>
+      <c r="O42" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Houssem Eddine</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Chachia</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Université de Tunis</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>cbh0RuIAAAAJ</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1984</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Arts, Humanités et Sciences Sociales</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>27</v>
+      </c>
+      <c r="O43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>99</v>
+      </c>
+      <c r="O44" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mohamed Aymen</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ben Abdessalem</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Université de Sousse</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-k3TRw8AAAAJ</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1986</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
         <v>30</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O45" t="n">
         <v>29</v>
       </c>
     </row>

--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,10 +560,10 @@
         <v>52</v>
       </c>
       <c r="N2" t="n">
-        <v>3890</v>
+        <v>3893</v>
       </c>
       <c r="O2" t="n">
-        <v>3621</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>63</v>
       </c>
       <c r="N3" t="n">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="O3" t="n">
-        <v>2356</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="4">
@@ -676,16 +676,16 @@
         <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="n">
         <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="O4" t="n">
-        <v>2029</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="5">
@@ -743,10 +743,10 @@
         <v>26</v>
       </c>
       <c r="N5" t="n">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="O5" t="n">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="6">
@@ -804,10 +804,10 @@
         <v>27</v>
       </c>
       <c r="N6" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="O6" t="n">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O7" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="O8" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9">
@@ -987,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="O9" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1048,10 @@
         <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O10" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11">
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O14" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15">
@@ -1365,27 +1365,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Marouane</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t xml:space="preserve">Chemek </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>South Ural State University</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Russie</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>imC8he8AAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O16" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1426,17 +1426,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1459,26 +1459,26 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="O17" t="n">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1507,16 +1507,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1530,16 +1530,16 @@
         <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O18" t="n">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -1548,36 +1548,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1594,13 +1594,13 @@
         <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="O19" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -1609,59 +1609,59 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>451</v>
+        <v>188</v>
       </c>
       <c r="O20" t="n">
-        <v>439</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -1670,17 +1670,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,30 +1699,30 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>210</v>
+        <v>451</v>
       </c>
       <c r="O21" t="n">
-        <v>209</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1764,26 +1764,26 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O22" t="n">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1821,11 +1821,11 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1835,16 +1835,16 @@
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="O23" t="n">
-        <v>103</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1896,16 +1896,16 @@
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="O24" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1914,59 +1914,59 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="O25" t="n">
-        <v>357</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1975,27 +1975,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2004,11 +2004,11 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2018,16 +2018,16 @@
         <v>4</v>
       </c>
       <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
         <v>4</v>
       </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
       <c r="N26" t="n">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="O26" t="n">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2056,16 +2056,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="O27" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
         <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O28" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2201,16 +2201,16 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O29" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,39 +2239,39 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O30" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2300,16 +2300,16 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2320,19 +2320,19 @@
         <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="O31" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2341,36 +2341,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kamel</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mhalhel</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Università degli studi di Messina</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Italie</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>R35oeVAAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2390,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O32" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -2402,36 +2402,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Kamel</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Mhalhel</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Università degli studi di Messina</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>R35oeVAAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O33" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2506,16 +2506,16 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O34" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2544,16 +2544,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2570,13 +2570,13 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O35" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -2585,17 +2585,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2614,11 +2614,11 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2628,16 +2628,16 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O36" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2695,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="O37" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2727,16 +2727,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2744,22 +2744,22 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O38" t="n">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2808,19 +2808,19 @@
         <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="O39" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
@@ -2829,36 +2829,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2866,19 +2866,19 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O40" t="n">
         <v>31</v>
@@ -2890,40 +2890,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O41" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -2951,27 +2951,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2980,11 +2980,11 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -3000,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O42" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3032,36 +3032,36 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O43" t="n">
         <v>22</v>
@@ -3073,17 +3073,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3102,30 +3102,30 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="O44" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -3134,58 +3134,119 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>99</v>
+      </c>
+      <c r="O45" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Mohamed Aymen</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Ben Abdessalem</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Université de Sousse</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>1986</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N46" t="n">
         <v>30</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O46" t="n">
         <v>29</v>
       </c>
     </row>

--- a/ranking_Sep-2023.xlsx
+++ b/ranking_Sep-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,10 +560,10 @@
         <v>52</v>
       </c>
       <c r="N2" t="n">
-        <v>3893</v>
+        <v>3903</v>
       </c>
       <c r="O2" t="n">
-        <v>3624</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>63</v>
       </c>
       <c r="N3" t="n">
-        <v>2506</v>
+        <v>2513</v>
       </c>
       <c r="O3" t="n">
-        <v>2358</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="O4" t="n">
-        <v>2033</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="5">
@@ -737,16 +737,16 @@
         <v>27</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" t="n">
         <v>26</v>
       </c>
       <c r="N5" t="n">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="O5" t="n">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="6">
@@ -859,16 +859,16 @@
         <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" t="n">
         <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="O7" t="n">
-        <v>1070</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="O8" t="n">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9">
@@ -987,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="O9" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         <v>12</v>
       </c>
       <c r="N11" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="O11" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12">
@@ -1170,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O12" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O14" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15">
@@ -1426,36 +1426,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Oumaima</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Ammar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Università di Firenze</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>l3mebFYAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="O17" t="n">
-        <v>202</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Houcemeddine</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Turki</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>u25grGjf85sC</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1520,26 +1520,26 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="O18" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
@@ -1548,17 +1548,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Takwa</t>
+          <t>Houcemeddine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Turki</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1568,16 +1568,16 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>E1pAl6IAAAAJ</t>
+          <t>u25grGjf85sC</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1591,16 +1591,16 @@
         <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O19" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
@@ -1609,27 +1609,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mohamed Ali</t>
+          <t>Rami</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Souibgui</t>
+          <t>Rahmani</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Universitat Autònoma de Barcelona</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Espagne</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LXq3YYMAAAAJ</t>
+          <t>0kq7_rIAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1638,30 +1638,30 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
         <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O20" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -1670,17 +1670,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rim</t>
+          <t>Takwa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ghammam</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>p5OibzsAAAAJ</t>
+          <t>E1pAl6IAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,30 +1699,30 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>451</v>
+        <v>222</v>
       </c>
       <c r="O21" t="n">
-        <v>439</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -1731,36 +1731,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Abir</t>
+          <t>Mohamed Ali</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mchergui</t>
+          <t>Souibgui</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Universitat Autònoma de Barcelona</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Espagne</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>lElQB7sAAAAJ</t>
+          <t>LXq3YYMAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
         <v>6</v>
       </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
       <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="n">
         <v>6</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
       <c r="N22" t="n">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O22" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Rim</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Ghammam</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>p5OibzsAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="O23" t="n">
-        <v>184</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Abir</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Mchergui</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>lElQB7sAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1893,19 +1893,19 @@
         <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
       <c r="N24" t="n">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="O24" t="n">
-        <v>103</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1943,11 +1943,11 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1957,16 +1957,16 @@
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="O25" t="n">
-        <v>77</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -1975,44 +1975,44 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
@@ -2021,13 +2021,13 @@
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="O26" t="n">
-        <v>357</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trigui</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2056,16 +2056,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>tAXcF0wAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -2082,13 +2082,13 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="O27" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -2097,40 +2097,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2140,16 +2140,16 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
         <v>4</v>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
       <c r="N28" t="n">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="O28" t="n">
-        <v>41</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29">
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Trigui</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2178,16 +2178,16 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>tAXcF0wAAAAJ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2198,19 +2198,19 @@
         <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="O29" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2259,19 +2259,19 @@
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O30" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +2280,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Taieb</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ach</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2300,39 +2300,39 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>aVGQH9sAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="O31" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -2341,17 +2341,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rimel</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Benmessaoud</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ZryMVeUAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2370,30 +2370,30 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="O32" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -2402,27 +2402,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kamel</t>
+          <t>Taieb</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mhalhel</t>
+          <t>Ach</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Università degli studi di Messina</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Italie</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>R35oeVAAAAAJ</t>
+          <t>aVGQH9sAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2442,19 +2442,19 @@
         <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="O33" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Rimel</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Benmessaoud</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>ZryMVeUAAAAJ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O34" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -2524,40 +2524,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Kamel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Mhalhel</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Università degli studi di Messina</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>R35oeVAAAAAJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2567,16 +2567,16 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O35" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
@@ -2585,17 +2585,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2605,20 +2605,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2628,16 +2628,16 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O36" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Raouf</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ghram</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2666,20 +2666,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>gudk6nwAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="O37" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mohamed Bechir</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dadi</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FdYohigAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2750,16 +2750,16 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O38" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Raouf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Ghram</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,39 +2788,39 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>gudk6nwAAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="O39" t="n">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -2829,17 +2829,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Mohamed Bechir</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Dadi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2849,16 +2849,16 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>FdYohigAAAAJ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2866,22 +2866,22 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="O40" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -2890,36 +2890,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2927,22 +2927,22 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="O41" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
@@ -2951,27 +2951,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2980,30 +2980,30 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O42" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3052,19 +3052,19 @@
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3102,30 +3102,30 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O44" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3134,36 +3134,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -3171,22 +3171,22 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="O45" t="n">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -3195,58 +3195,180 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Houssem Eddine</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chachia</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Université de Tunis</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>cbh0RuIAAAAJ</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1984</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Arts, Humanités et Sciences Sociales</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>27</v>
+      </c>
+      <c r="O46" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Aiman</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ghrab</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Université de Sfax</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ZUM9JuwAAAAJ</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1994</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>99</v>
+      </c>
+      <c r="O47" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Mohamed Aymen</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Ben Abdessalem</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Université de Sousse</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>1986</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="J48" t="n">
         <v>1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K48" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N48" t="n">
         <v>30</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O48" t="n">
         <v>29</v>
       </c>
     </row>
